--- a/ClosedXML_Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.650625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="14.650625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML_Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.650625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.650625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML_Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/AutoFilter/DateTimeGroupAutoFilter.xlsx
@@ -383,7 +383,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.650625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="12.310625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
